--- a/Pikachu.xlsx
+++ b/Pikachu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allamarchenko/Documents/GitHub/PikachuCase_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A65CF94-DDC5-8C48-A90C-B4BC8751A77F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE977D2-0B37-8041-B88B-071F2E89783F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14640" xr2:uid="{FE418350-6DDF-6C4E-BEB6-1DB9403EC42F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Andrew</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Snorlax</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Pockemon</t>
   </si>
 </sst>
 </file>
@@ -406,51 +412,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506D8920-3759-544A-A7EC-E7765F0B351C}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
